--- a/data/trans_orig/P5710-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5710-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>514498</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>482373</v>
+        <v>483839</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>546703</v>
+        <v>545044</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4986780490940502</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4675412371506551</v>
+        <v>0.4689622953904692</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5298936014488228</v>
+        <v>0.5282852749364192</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>633</v>
@@ -765,19 +765,19 @@
         <v>639189</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>602228</v>
+        <v>604077</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>673721</v>
+        <v>674004</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4860331922090383</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4579285362644513</v>
+        <v>0.4593348404741222</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5122913891866437</v>
+        <v>0.5125062413096014</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1157</v>
@@ -786,19 +786,19 @@
         <v>1153686</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1108460</v>
+        <v>1108545</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1201385</v>
+        <v>1202235</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4915921620695644</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4723212175477747</v>
+        <v>0.4723574315177977</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5119171546488589</v>
+        <v>0.5122792024849396</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>276407</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251929</v>
+        <v>250104</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>305866</v>
+        <v>306033</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2679077278073937</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2441831000458697</v>
+        <v>0.2424137314833517</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2964608724787698</v>
+        <v>0.2966231199239432</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>326</v>
@@ -836,19 +836,19 @@
         <v>334204</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>302005</v>
+        <v>302445</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>363242</v>
+        <v>366602</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2541256676493012</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2296420692696245</v>
+        <v>0.2299766756098005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2762057516899881</v>
+        <v>0.2787609357631778</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>601</v>
@@ -857,19 +857,19 @@
         <v>610610</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>569478</v>
+        <v>570677</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>651574</v>
+        <v>652291</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2601845782191475</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2426576743536649</v>
+        <v>0.2431686929049351</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2776394807665343</v>
+        <v>0.2779450637109052</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>186490</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>160856</v>
+        <v>163063</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>209705</v>
+        <v>212870</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1807556024977468</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1559098245191709</v>
+        <v>0.1580494077934996</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2032571176034547</v>
+        <v>0.2063248232070331</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>226</v>
@@ -907,19 +907,19 @@
         <v>230948</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>207261</v>
+        <v>205830</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>260999</v>
+        <v>260746</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1756109103424365</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1575991224194307</v>
+        <v>0.1565115507501318</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1984615188256724</v>
+        <v>0.1982689421849334</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>412</v>
@@ -928,19 +928,19 @@
         <v>417438</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>380091</v>
+        <v>378792</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>457266</v>
+        <v>455390</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1778726353183003</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1619588843794613</v>
+        <v>0.1614052782667193</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1948438455613652</v>
+        <v>0.194044347297843</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>46745</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33519</v>
+        <v>34455</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>62476</v>
+        <v>60425</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04530760136939845</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03248833383613474</v>
+        <v>0.03339562389170335</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0605552772326709</v>
+        <v>0.05856700337524578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>91</v>
@@ -978,19 +978,19 @@
         <v>95040</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77270</v>
+        <v>77679</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>113321</v>
+        <v>115752</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07226767486863987</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05875523396245205</v>
+        <v>0.05906662407741205</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08616791428216738</v>
+        <v>0.08801673152960375</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -999,19 +999,19 @@
         <v>141785</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117851</v>
+        <v>119200</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>165311</v>
+        <v>164905</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06041540659998969</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05021693818962574</v>
+        <v>0.05079179030386931</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07044005821293509</v>
+        <v>0.07026700854129093</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>7584</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3100</v>
+        <v>2892</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15620</v>
+        <v>15118</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007351019231410806</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003004404544714995</v>
+        <v>0.002803143117293698</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01513956144596219</v>
+        <v>0.0146526770961676</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -1049,19 +1049,19 @@
         <v>15732</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9020</v>
+        <v>8602</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25435</v>
+        <v>25799</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01196255493058419</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0068587194251017</v>
+        <v>0.006540970423906649</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01934059009224126</v>
+        <v>0.01961760146563435</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -1070,19 +1070,19 @@
         <v>23316</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14860</v>
+        <v>14489</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33384</v>
+        <v>34847</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.009935217792998193</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006331744177716346</v>
+        <v>0.006173704470187885</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0142252225463349</v>
+        <v>0.01484849979009529</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>1092939</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1050615</v>
+        <v>1053783</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1128606</v>
+        <v>1131885</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6454061124819063</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6204129986112311</v>
+        <v>0.6222836174625228</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6664680588883111</v>
+        <v>0.6684044235741269</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>927</v>
@@ -1195,19 +1195,19 @@
         <v>941426</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>901185</v>
+        <v>898838</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>981316</v>
+        <v>977491</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5929593526103328</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5676136049134833</v>
+        <v>0.5661351771855824</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6180841672113598</v>
+        <v>0.6156749915321171</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1978</v>
@@ -1216,19 +1216,19 @@
         <v>2034365</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1977359</v>
+        <v>1975491</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2090338</v>
+        <v>2089856</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6200278330831045</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6026537613310116</v>
+        <v>0.6020844281644449</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6370872603051408</v>
+        <v>0.6369404383565124</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>417411</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>380709</v>
+        <v>384138</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>451656</v>
+        <v>454638</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2464909260278549</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2248175960167066</v>
+        <v>0.2268426811956356</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2667131610408009</v>
+        <v>0.268474158619013</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>414</v>
@@ -1266,19 +1266,19 @@
         <v>419731</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>381565</v>
+        <v>386312</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>454412</v>
+        <v>457884</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2643689464730795</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2403300136719353</v>
+        <v>0.2433194480624958</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2862125573063881</v>
+        <v>0.2883992528270949</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>831</v>
@@ -1287,19 +1287,19 @@
         <v>837142</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>791096</v>
+        <v>785554</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>889467</v>
+        <v>891173</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2551418588799016</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2411080451591331</v>
+        <v>0.2394189586927583</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2710890859727382</v>
+        <v>0.2716091290290134</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>148880</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>127764</v>
+        <v>126807</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>173956</v>
+        <v>172535</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08791695412072574</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07544791391166822</v>
+        <v>0.07488267807930386</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1027253674773515</v>
+        <v>0.1018858819432342</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>170</v>
@@ -1337,19 +1337,19 @@
         <v>178761</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>154237</v>
+        <v>156282</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>206600</v>
+        <v>207947</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1125929905343834</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0971465795292563</v>
+        <v>0.0984346147513005</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1301277830300522</v>
+        <v>0.1309761920034816</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>319</v>
@@ -1358,19 +1358,19 @@
         <v>327641</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>293889</v>
+        <v>291443</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>360026</v>
+        <v>360516</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09985735516922281</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08957053855224231</v>
+        <v>0.08882518933134623</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1097278381550798</v>
+        <v>0.109877168400927</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>32157</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22827</v>
+        <v>21549</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44892</v>
+        <v>45502</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01898940525459806</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01348001952359305</v>
+        <v>0.01272491545966135</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02650982844233137</v>
+        <v>0.02687001466779958</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -1408,19 +1408,19 @@
         <v>44555</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31542</v>
+        <v>32051</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60070</v>
+        <v>59276</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02806289098756926</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01986672571605523</v>
+        <v>0.02018749748475854</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03783504230760589</v>
+        <v>0.03733494702708576</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -1429,19 +1429,19 @@
         <v>76712</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59707</v>
+        <v>60458</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95912</v>
+        <v>98153</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02337994256550623</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0181974469619415</v>
+        <v>0.01842628658053245</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02923185731764124</v>
+        <v>0.02991477082271447</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7112</v>
+        <v>6783</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001196602114915056</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.004199769377191866</v>
+        <v>0.004005512145609578</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1479,19 +1479,19 @@
         <v>3200</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9581</v>
+        <v>8912</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002015819394635054</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0006142315579947582</v>
+        <v>0.0006145394456737343</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.006034472453065703</v>
+        <v>0.005613167627261944</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1500,19 +1500,19 @@
         <v>5227</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1964</v>
+        <v>1981</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11286</v>
+        <v>11722</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001593010302264851</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.000598593197574212</v>
+        <v>0.0006036407686199865</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0034398012801651</v>
+        <v>0.003572536494599232</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>337579</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>315072</v>
+        <v>312544</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>361639</v>
+        <v>359365</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6134200260628043</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5725226501915771</v>
+        <v>0.5679284157930549</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6571395761979758</v>
+        <v>0.6530069883504465</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>287</v>
@@ -1625,19 +1625,19 @@
         <v>300968</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>278516</v>
+        <v>277838</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>322028</v>
+        <v>321529</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6317382480696774</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5846112337965701</v>
+        <v>0.58318884234326</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6759443975306132</v>
+        <v>0.6748968047942284</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>611</v>
@@ -1646,19 +1646,19 @@
         <v>638547</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>606349</v>
+        <v>606253</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>668953</v>
+        <v>668800</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6219197982983452</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5905605365190768</v>
+        <v>0.5904669485507082</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6515341177094035</v>
+        <v>0.651385050568648</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>152914</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>132091</v>
+        <v>133926</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>176312</v>
+        <v>174612</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2778615331543518</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2400250941741141</v>
+        <v>0.2433597416796474</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3203797205252645</v>
+        <v>0.3172897902885738</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>118</v>
@@ -1696,19 +1696,19 @@
         <v>124111</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>105937</v>
+        <v>104997</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>144713</v>
+        <v>142960</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.260512923962579</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2223638189650808</v>
+        <v>0.2203908605468093</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3037551513232011</v>
+        <v>0.3000761241548981</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>264</v>
@@ -1717,19 +1717,19 @@
         <v>277025</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>248041</v>
+        <v>251480</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>306471</v>
+        <v>311639</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.26981166746989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2415820845689429</v>
+        <v>0.2449319778157399</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2984911410217265</v>
+        <v>0.3035246152282282</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>48063</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>35444</v>
+        <v>35197</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>62245</v>
+        <v>63127</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08733560365616411</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06440605750074627</v>
+        <v>0.06395712285165285</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1131066376543714</v>
+        <v>0.1147089965994377</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -1767,19 +1767,19 @@
         <v>40020</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29442</v>
+        <v>28798</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>55487</v>
+        <v>54353</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08400271497682654</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06179979995311509</v>
+        <v>0.06044858338415001</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1164690347753004</v>
+        <v>0.1140880705957108</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>81</v>
@@ -1788,19 +1788,19 @@
         <v>88083</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>71923</v>
+        <v>70976</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>108843</v>
+        <v>107718</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08578912198069621</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07005013223430971</v>
+        <v>0.06912820401420446</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1060088981391193</v>
+        <v>0.1049129604006322</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>10700</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4731</v>
+        <v>5306</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19170</v>
+        <v>19634</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01944399695771086</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008597096794708915</v>
+        <v>0.009641606761548065</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03483496733791321</v>
+        <v>0.03567754671735659</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1838,19 +1838,19 @@
         <v>9791</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4300</v>
+        <v>4660</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17733</v>
+        <v>18181</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02055152915557367</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009026264912591267</v>
+        <v>0.00978051223513224</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03722180521176557</v>
+        <v>0.03816229089525872</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -1859,19 +1859,19 @@
         <v>20491</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13081</v>
+        <v>12285</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31833</v>
+        <v>31411</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01995789898498347</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01274064007537593</v>
+        <v>0.01196487473009985</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03100368191071319</v>
+        <v>0.03059300794493472</v>
       </c>
     </row>
     <row r="20">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6020</v>
+        <v>4355</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001938840168968919</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01093848745870233</v>
+        <v>0.007914023686250899</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7646</v>
+        <v>7643</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003194583835343406</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01604988606373111</v>
+        <v>0.01604211489755845</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8891</v>
+        <v>10180</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002521513266085082</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008659752489635844</v>
+        <v>0.009915174633617119</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>1945016</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1886828</v>
+        <v>1880694</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2002836</v>
+        <v>2000428</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5938147491586659</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5760498982036509</v>
+        <v>0.5741773739176402</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6114673564705193</v>
+        <v>0.6107322324441515</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1847</v>
@@ -2055,19 +2055,19 @@
         <v>1881581</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1818571</v>
+        <v>1819613</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1934420</v>
+        <v>1937400</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5568131275191098</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5381664646793073</v>
+        <v>0.5384749875392074</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5724495870853675</v>
+        <v>0.573331368905363</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3746</v>
@@ -2076,19 +2076,19 @@
         <v>3826597</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3746603</v>
+        <v>3735368</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3899833</v>
+        <v>3911731</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5750255317879196</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.563004785082182</v>
+        <v>0.5613165418124794</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5860307878237067</v>
+        <v>0.587818738436111</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>846731</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>800828</v>
+        <v>800226</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>903246</v>
+        <v>898736</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2585076190121774</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2444934592920705</v>
+        <v>0.2443095398343048</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2757616035371114</v>
+        <v>0.2743848160566028</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>858</v>
@@ -2126,19 +2126,19 @@
         <v>878047</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>828878</v>
+        <v>825463</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>929791</v>
+        <v>925475</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2598388412917361</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2452885234717564</v>
+        <v>0.2442779414907948</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2751516072454804</v>
+        <v>0.2738741106960698</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1696</v>
@@ -2147,19 +2147,19 @@
         <v>1724778</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1656978</v>
+        <v>1647469</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1801867</v>
+        <v>1794539</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2591836062708728</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2489952355041823</v>
+        <v>0.2475662949089343</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2707678027171024</v>
+        <v>0.2696666147806839</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>383432</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>348274</v>
+        <v>347924</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>419105</v>
+        <v>424586</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1170621298566328</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1063284127457218</v>
+        <v>0.1062215498479224</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1279529562380387</v>
+        <v>0.129626278332475</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>433</v>
@@ -2197,19 +2197,19 @@
         <v>449729</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>411226</v>
+        <v>408478</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>489671</v>
+        <v>493442</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1330874795403464</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1216935298535019</v>
+        <v>0.1208801190405004</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1449075081671536</v>
+        <v>0.1460234716590086</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>812</v>
@@ -2218,19 +2218,19 @@
         <v>833161</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>776911</v>
+        <v>778126</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>887441</v>
+        <v>887041</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1251997131653499</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1167469753851888</v>
+        <v>0.116929626666699</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1333563995069467</v>
+        <v>0.1332963428712366</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>89602</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70043</v>
+        <v>72602</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>110142</v>
+        <v>109998</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02735563970463521</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02138406119334383</v>
+        <v>0.02216529871583627</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.033626362794584</v>
+        <v>0.03358247997247905</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>140</v>
@@ -2268,19 +2268,19 @@
         <v>149386</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>127638</v>
+        <v>127108</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>175902</v>
+        <v>174930</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04420748515189714</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03777180940568066</v>
+        <v>0.03761490868158801</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05205432086402539</v>
+        <v>0.05176676454023822</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>227</v>
@@ -2289,19 +2289,19 @@
         <v>238988</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>208095</v>
+        <v>205955</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>273624</v>
+        <v>272627</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03591291295852778</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03127060920427267</v>
+        <v>0.03094896190296928</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04111769950338161</v>
+        <v>0.04096786922112769</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>10678</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5764</v>
+        <v>5066</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19657</v>
+        <v>20199</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003259862267888588</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001759685513892939</v>
+        <v>0.001546763292195438</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.006001426953714412</v>
+        <v>0.006166628280180863</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -2339,19 +2339,19 @@
         <v>20455</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12867</v>
+        <v>13052</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31253</v>
+        <v>30926</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006053066496910563</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003807644842133602</v>
+        <v>0.003862470974253195</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.009248527389358318</v>
+        <v>0.009151918714019595</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -2360,19 +2360,19 @@
         <v>31132</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20654</v>
+        <v>19944</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>43429</v>
+        <v>43382</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004678235817329904</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003103621933933158</v>
+        <v>0.002996997662135093</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006526157375389021</v>
+        <v>0.006519103282416287</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>530236</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>495335</v>
+        <v>499037</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>559666</v>
+        <v>561099</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5468225079766849</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5108291815250067</v>
+        <v>0.514647678225611</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5771729314778122</v>
+        <v>0.5786509833298105</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>643</v>
@@ -2724,19 +2724,19 @@
         <v>687303</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>650145</v>
+        <v>650757</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>725196</v>
+        <v>727008</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5161450064688571</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4882398447146802</v>
+        <v>0.4886995173393784</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5446012227273989</v>
+        <v>0.5459620305201508</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1141</v>
@@ -2745,19 +2745,19 @@
         <v>1217540</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1168803</v>
+        <v>1170363</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1264717</v>
+        <v>1268437</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5290713066893727</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5078934416885111</v>
+        <v>0.5085712471120185</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5495716824300281</v>
+        <v>0.5511883843329899</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>260322</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>233575</v>
+        <v>231687</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288050</v>
+        <v>287984</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2684651189872239</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2408817654411201</v>
+        <v>0.2389345388397674</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2970604214020767</v>
+        <v>0.2969919769168292</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>401</v>
@@ -2795,19 +2795,19 @@
         <v>433464</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>397799</v>
+        <v>396425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>470581</v>
+        <v>468265</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3255188965484409</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2987358055634057</v>
+        <v>0.2977038263460592</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.353392871972994</v>
+        <v>0.3516534692126743</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>641</v>
@@ -2816,19 +2816,19 @@
         <v>693786</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>649103</v>
+        <v>648616</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>737328</v>
+        <v>738528</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3014786644166738</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2820619755050251</v>
+        <v>0.2818504528406876</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3203996013473475</v>
+        <v>0.320920805909866</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>136420</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>115310</v>
+        <v>117278</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>162650</v>
+        <v>162179</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1406876446723404</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.118917361745396</v>
+        <v>0.1209461235984632</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1677377505831515</v>
+        <v>0.1672517127396006</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>148</v>
@@ -2866,19 +2866,19 @@
         <v>157889</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>137857</v>
+        <v>136186</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>184422</v>
+        <v>184068</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1185701881256767</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1035269392951993</v>
+        <v>0.1022717285074539</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1384956124287212</v>
+        <v>0.1382296752821092</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>273</v>
@@ -2887,19 +2887,19 @@
         <v>294309</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>265467</v>
+        <v>263879</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>324610</v>
+        <v>328180</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1278896199367528</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1153561798941359</v>
+        <v>0.1146662166858117</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1410565146175667</v>
+        <v>0.1426075902040857</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>34585</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23942</v>
+        <v>23793</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49229</v>
+        <v>51046</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03566708329956102</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02469086928557733</v>
+        <v>0.02453742916008773</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05076885061525661</v>
+        <v>0.05264246109850931</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -2937,19 +2937,19 @@
         <v>31526</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22559</v>
+        <v>21175</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44278</v>
+        <v>43394</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02367524284913807</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01694117128373713</v>
+        <v>0.01590176464027389</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03325169149523566</v>
+        <v>0.03258746256082379</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -2958,19 +2958,19 @@
         <v>66111</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51077</v>
+        <v>51437</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84681</v>
+        <v>83218</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02872813575891884</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02219496425458621</v>
+        <v>0.02235132769460248</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03679733008703516</v>
+        <v>0.03616169259781551</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>8104</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3847</v>
+        <v>3235</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15717</v>
+        <v>16093</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.008357645064189914</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003967551819619914</v>
+        <v>0.00333572710505759</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01620819926248855</v>
+        <v>0.01659609050929597</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -3008,19 +3008,19 @@
         <v>21426</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13416</v>
+        <v>14200</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32572</v>
+        <v>34031</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01609066600788729</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01007526304732939</v>
+        <v>0.01066370218159531</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02446026581130656</v>
+        <v>0.02555603784093924</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>28</v>
@@ -3029,19 +3029,19 @@
         <v>29531</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20175</v>
+        <v>19941</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43304</v>
+        <v>43769</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01283227319828178</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008766754824027289</v>
+        <v>0.008665301703668065</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01881718072505543</v>
+        <v>0.01901945798418336</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>1201893</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1152991</v>
+        <v>1159853</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1241449</v>
+        <v>1250241</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6126791615599969</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5877506624129636</v>
+        <v>0.5912485792322575</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6328433306912882</v>
+        <v>0.6373249439279959</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>958</v>
@@ -3154,19 +3154,19 @@
         <v>1026634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>981681</v>
+        <v>983774</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1067427</v>
+        <v>1071371</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5844093458145112</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5588202651331613</v>
+        <v>0.5600116230894658</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6076309759997571</v>
+        <v>0.6098760930966982</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2104</v>
@@ -3175,19 +3175,19 @@
         <v>2228527</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2169834</v>
+        <v>2165008</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2292457</v>
+        <v>2289113</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5993235214957169</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5835389414237332</v>
+        <v>0.5822411901340381</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6165163532586799</v>
+        <v>0.6156169564871913</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>550102</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>512679</v>
+        <v>506928</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>595467</v>
+        <v>590597</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2804210366929491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.261343914239022</v>
+        <v>0.2584125624163796</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3035462695935698</v>
+        <v>0.3010635981323687</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>467</v>
@@ -3225,19 +3225,19 @@
         <v>497425</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>462282</v>
+        <v>459241</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>539189</v>
+        <v>539786</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.283158474174665</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2631529609264903</v>
+        <v>0.2614219073719682</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.30693258877765</v>
+        <v>0.3072719464139749</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>977</v>
@@ -3246,19 +3246,19 @@
         <v>1047528</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>991684</v>
+        <v>989088</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1103156</v>
+        <v>1106622</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2817142969686233</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2666960880239471</v>
+        <v>0.2659978738237316</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.296674711653649</v>
+        <v>0.2976068318151563</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>164221</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>139736</v>
+        <v>141264</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>188457</v>
+        <v>191323</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08371377881123308</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07123185149795558</v>
+        <v>0.07201112139527517</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09606832997816987</v>
+        <v>0.09752917328576559</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>161</v>
@@ -3296,19 +3296,19 @@
         <v>177364</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>152110</v>
+        <v>151211</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>207783</v>
+        <v>201027</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1009639639478718</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08658845551057066</v>
+        <v>0.08607634817655187</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1182801443315503</v>
+        <v>0.1144341227629727</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>317</v>
@@ -3317,19 +3317,19 @@
         <v>341585</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>307198</v>
+        <v>309200</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>380604</v>
+        <v>380390</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09186336371837663</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08261565878081875</v>
+        <v>0.08315384715164953</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1023567139938787</v>
+        <v>0.1022993626331127</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>38520</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26850</v>
+        <v>28102</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54182</v>
+        <v>53735</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01963613675116819</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01368687901504244</v>
+        <v>0.0143253104530006</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02761965367582062</v>
+        <v>0.02739211853861656</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -3367,19 +3367,19 @@
         <v>43409</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31234</v>
+        <v>31038</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58525</v>
+        <v>59300</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02471051283538169</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01777996942063818</v>
+        <v>0.01766835815492854</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03331531006377268</v>
+        <v>0.03375620539729454</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -3388,19 +3388,19 @@
         <v>81929</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64886</v>
+        <v>64593</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104358</v>
+        <v>103829</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02203344776096379</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01745009357012503</v>
+        <v>0.01737118317703011</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02806524245174758</v>
+        <v>0.02792310391416966</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>6964</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2993</v>
+        <v>2925</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14118</v>
+        <v>14062</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003549886184652701</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00152573861836171</v>
+        <v>0.001491280935841423</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007196662724090009</v>
+        <v>0.007168280170049028</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -3438,19 +3438,19 @@
         <v>11871</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6102</v>
+        <v>5948</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20998</v>
+        <v>21459</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006757703227570331</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003473809045894511</v>
+        <v>0.003385762872871843</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01195317138655242</v>
+        <v>0.01221570686502339</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -3459,19 +3459,19 @@
         <v>18835</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11084</v>
+        <v>10966</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>31252</v>
+        <v>28355</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005065370056319332</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002980887755853902</v>
+        <v>0.002949010519744254</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.00840473896339459</v>
+        <v>0.007625549113381763</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>313427</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>289119</v>
+        <v>288106</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>334681</v>
+        <v>334014</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6542193801126817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6034807330977313</v>
+        <v>0.601366164694808</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6985837539098948</v>
+        <v>0.6971915516515211</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>288</v>
@@ -3584,19 +3584,19 @@
         <v>316938</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>295254</v>
+        <v>295961</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>335120</v>
+        <v>336579</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6939953969326719</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6465142799541644</v>
+        <v>0.6480629873979777</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7338094372712057</v>
+        <v>0.7370030857851354</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>574</v>
@@ -3605,19 +3605,19 @@
         <v>630365</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>599001</v>
+        <v>597079</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>658648</v>
+        <v>660058</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6736313410209231</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6401148969861286</v>
+        <v>0.6380606615847119</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7038559159306846</v>
+        <v>0.705362942811653</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>121962</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>102367</v>
+        <v>102409</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>143012</v>
+        <v>143106</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2545732679107084</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2136725473188309</v>
+        <v>0.2137605921267558</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2985096696388084</v>
+        <v>0.298706608841591</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>93</v>
@@ -3655,19 +3655,19 @@
         <v>104367</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>85530</v>
+        <v>86656</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>124275</v>
+        <v>124652</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2285313321385638</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1872842937132542</v>
+        <v>0.1897499809536644</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2721244939069051</v>
+        <v>0.2729480524697537</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>203</v>
@@ -3676,19 +3676,19 @@
         <v>226329</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>201674</v>
+        <v>200811</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>254624</v>
+        <v>257490</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2418639752363916</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2155161386323622</v>
+        <v>0.2145936765836176</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2721004788818738</v>
+        <v>0.2751635594915772</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>37550</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26247</v>
+        <v>26201</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52185</v>
+        <v>51394</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07837775190487463</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05478471281517953</v>
+        <v>0.05469003194517178</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1089256988363087</v>
+        <v>0.1072751663532944</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>25</v>
@@ -3726,19 +3726,19 @@
         <v>31312</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20777</v>
+        <v>19959</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46498</v>
+        <v>44349</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06856254490064688</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04549427998857127</v>
+        <v>0.04370410434214165</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1018152041273555</v>
+        <v>0.09710964772466309</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>59</v>
@@ -3747,19 +3747,19 @@
         <v>68861</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>54346</v>
+        <v>52732</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>89443</v>
+        <v>86855</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07358761880696699</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05807569682604057</v>
+        <v>0.05635183623516356</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09558225902267305</v>
+        <v>0.09281703217519424</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>5249</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1964</v>
+        <v>1838</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13129</v>
+        <v>11606</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01095734498919446</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004100023946775447</v>
+        <v>0.00383567928107571</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02740479491565449</v>
+        <v>0.02422612274291684</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5902</v>
+        <v>7155</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004181112203637471</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01292336485465642</v>
+        <v>0.0156662514563928</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -3818,19 +3818,19 @@
         <v>7159</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3099</v>
+        <v>3046</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14315</v>
+        <v>14295</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007650327935836109</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00331154935885686</v>
+        <v>0.003255189974940104</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01529768223633983</v>
+        <v>0.01527570306627676</v>
       </c>
     </row>
     <row r="20">
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4572</v>
+        <v>4562</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001872255082540826</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009543041187658393</v>
+        <v>0.009522936367691769</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7843</v>
+        <v>6875</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.004729613824479931</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01717437727709606</v>
+        <v>0.01505413008029041</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -3889,19 +3889,19 @@
         <v>3057</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8612</v>
+        <v>8254</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003266736999882227</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0009557955344667762</v>
+        <v>0.0009481767307957265</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.00920310590283311</v>
+        <v>0.008820121918018597</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>2045556</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1989497</v>
+        <v>1985497</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2107380</v>
+        <v>2107165</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5997900261758002</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.583352676970645</v>
+        <v>0.5821797903663242</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6179177716674754</v>
+        <v>0.6178545755188938</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1889</v>
@@ -4014,19 +4014,19 @@
         <v>2030875</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1972336</v>
+        <v>1970001</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2089486</v>
+        <v>2090297</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5728846581889832</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5563716711230485</v>
+        <v>0.5557128302084741</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5894180458381061</v>
+        <v>0.5896468435483785</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3819</v>
@@ -4035,19 +4035,19 @@
         <v>4076431</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3989603</v>
+        <v>3988806</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4154599</v>
+        <v>4159444</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5860771193172236</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5735936523712561</v>
+        <v>0.5734790481442847</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.597315405715424</v>
+        <v>0.5980120446249467</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>932387</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>879714</v>
+        <v>876089</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>988269</v>
+        <v>983180</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2733907283240457</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2579461994470539</v>
+        <v>0.2568835291247347</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2897762777037074</v>
+        <v>0.2882841183132627</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>961</v>
@@ -4085,19 +4085,19 @@
         <v>1035256</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>979918</v>
+        <v>976980</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1088973</v>
+        <v>1094481</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2920329694447083</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2764228124446028</v>
+        <v>0.2755940585845341</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3071857226681461</v>
+        <v>0.3087396607186602</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1821</v>
@@ -4106,19 +4106,19 @@
         <v>1967643</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1895656</v>
+        <v>1887246</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2046655</v>
+        <v>2050313</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2828921525843654</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2725424757765512</v>
+        <v>0.271333345355631</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2942518967695091</v>
+        <v>0.294777859145727</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>338191</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>299268</v>
+        <v>304210</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>372303</v>
+        <v>378837</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09916313696785359</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08775013676732098</v>
+        <v>0.08919923733033555</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1091651156430983</v>
+        <v>0.1110809674848063</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>334</v>
@@ -4156,19 +4156,19 @@
         <v>366564</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>328904</v>
+        <v>332573</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>405572</v>
+        <v>406035</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1034032693869326</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09277983326042072</v>
+        <v>0.0938145965088038</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1144069492883138</v>
+        <v>0.1145374106331377</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>649</v>
@@ -4177,19 +4177,19 @@
         <v>704756</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>653789</v>
+        <v>653039</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>766681</v>
+        <v>757337</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1013242128155934</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09399656741516485</v>
+        <v>0.09388879865159917</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1102272999450137</v>
+        <v>0.10888395018853</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>78355</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>62221</v>
+        <v>61776</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97709</v>
+        <v>98059</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02297493530514102</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01824429125600989</v>
+        <v>0.01811375841820507</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0286499811928246</v>
+        <v>0.02875245125758913</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>70</v>
@@ -4227,19 +4227,19 @@
         <v>76845</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>60611</v>
+        <v>61071</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>97657</v>
+        <v>97992</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02167692516431228</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0170975080514363</v>
+        <v>0.01722747594637932</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02754770916423469</v>
+        <v>0.02764233902647628</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>142</v>
@@ -4248,19 +4248,19 @@
         <v>155200</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>131217</v>
+        <v>130908</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>181202</v>
+        <v>184029</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02231337616306225</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01886539503534373</v>
+        <v>0.01882097074369387</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02605172293660555</v>
+        <v>0.02645819456262221</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>15965</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9123</v>
+        <v>9541</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24969</v>
+        <v>25318</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004681173227159548</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002674942564695299</v>
+        <v>0.002797556764507879</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.00732125568733715</v>
+        <v>0.00742352136198107</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>32</v>
@@ -4298,19 +4298,19 @@
         <v>35458</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>23781</v>
+        <v>25072</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>49297</v>
+        <v>49495</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0100021778150637</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006708212381500788</v>
+        <v>0.007072579837367034</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01390599176119859</v>
+        <v>0.0139619559699021</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>48</v>
@@ -4319,19 +4319,19 @@
         <v>51423</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>38816</v>
+        <v>37806</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>69077</v>
+        <v>66683</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00739313911975541</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0055807020193085</v>
+        <v>0.00543550674475039</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.009931292699959756</v>
+        <v>0.009587113871762946</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>336304</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>308271</v>
+        <v>310663</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>363875</v>
+        <v>364456</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4458218291992196</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4086587773415665</v>
+        <v>0.4118305394209314</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4823706221735404</v>
+        <v>0.4831415392976487</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>388</v>
@@ -4683,19 +4683,19 @@
         <v>431466</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>396814</v>
+        <v>399148</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>460350</v>
+        <v>463596</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4343376522156373</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3994549702699249</v>
+        <v>0.4018047239478754</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4634133142363758</v>
+        <v>0.4666810715679056</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>729</v>
@@ -4704,19 +4704,19 @@
         <v>767771</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>727883</v>
+        <v>724688</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>812291</v>
+        <v>811148</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4392943805249594</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4164717443208122</v>
+        <v>0.4146439446307628</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4647674915486102</v>
+        <v>0.464113491046087</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>268013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>242691</v>
+        <v>242880</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>299087</v>
+        <v>293981</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.355291318853319</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3217233412743817</v>
+        <v>0.3219740546181527</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3964841925280366</v>
+        <v>0.389715348910896</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>323</v>
@@ -4754,19 +4754,19 @@
         <v>357638</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>325541</v>
+        <v>327644</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>388536</v>
+        <v>391215</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3600179407630381</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3277079291789716</v>
+        <v>0.3298241263044764</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3911213600093175</v>
+        <v>0.3938180850719282</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>592</v>
@@ -4775,19 +4775,19 @@
         <v>625651</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>580789</v>
+        <v>582724</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>663105</v>
+        <v>666031</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3579778659138904</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3323095326002193</v>
+        <v>0.3334163873968756</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3794078690276039</v>
+        <v>0.3810822441433624</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>113226</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>95672</v>
+        <v>94159</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>137148</v>
+        <v>132335</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1500976512477122</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1268278247199248</v>
+        <v>0.1248215854550729</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1818098502599637</v>
+        <v>0.1754302257743615</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>143</v>
@@ -4825,19 +4825,19 @@
         <v>161733</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>136748</v>
+        <v>138595</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>187285</v>
+        <v>186493</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1628096475452751</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1376580758557955</v>
+        <v>0.1395173052090212</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.188531703416575</v>
+        <v>0.1877343243217259</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>257</v>
@@ -4846,19 +4846,19 @@
         <v>274959</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>242372</v>
+        <v>244634</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>305238</v>
+        <v>307198</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1573229755786025</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.138677479298379</v>
+        <v>0.1399716841798738</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1746476675774284</v>
+        <v>0.1757690776815318</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>32814</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22959</v>
+        <v>22726</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45520</v>
+        <v>45809</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04349988231563584</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03043616174424478</v>
+        <v>0.03012658061336337</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06034405039610772</v>
+        <v>0.06072648531950974</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -4896,19 +4896,19 @@
         <v>31354</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21103</v>
+        <v>21243</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43949</v>
+        <v>44337</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03156283151652104</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02124328650350171</v>
+        <v>0.02138431035440844</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04424142483238314</v>
+        <v>0.04463228511990736</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -4917,19 +4917,19 @@
         <v>64168</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49827</v>
+        <v>49963</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81067</v>
+        <v>82089</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03671502637649016</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02850944324460204</v>
+        <v>0.02858717135243343</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04638411185369595</v>
+        <v>0.04696903357674446</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>3990</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1032</v>
+        <v>961</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8900</v>
+        <v>10001</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005289318384113397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001367797293961039</v>
+        <v>0.001273564920934017</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01179834248785478</v>
+        <v>0.01325723867189159</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -4967,19 +4967,19 @@
         <v>11197</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5100</v>
+        <v>5440</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20918</v>
+        <v>20636</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0112719279595284</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005134321035182202</v>
+        <v>0.005476022249520756</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02105728695000611</v>
+        <v>0.02077357266483068</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -4988,19 +4988,19 @@
         <v>15187</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8758</v>
+        <v>8587</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25556</v>
+        <v>26323</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008689751606057493</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005011136658697886</v>
+        <v>0.00491332191152931</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01462252863676509</v>
+        <v>0.01506138808972112</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>1002853</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>955957</v>
+        <v>956185</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1051500</v>
+        <v>1054489</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4837960626252382</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4611725962609906</v>
+        <v>0.461282538429067</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5072644732108456</v>
+        <v>0.5087062433958688</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>975</v>
@@ -5113,19 +5113,19 @@
         <v>1004678</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>963255</v>
+        <v>961459</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1049937</v>
+        <v>1049546</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5064259783245892</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4855458092593123</v>
+        <v>0.4846406226916424</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5292393297037994</v>
+        <v>0.5290422646669605</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1919</v>
@@ -5134,19 +5134,19 @@
         <v>2007531</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1943462</v>
+        <v>1947071</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2080065</v>
+        <v>2078498</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4948627206784874</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4790694544440779</v>
+        <v>0.4799590553081571</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.51274264642726</v>
+        <v>0.5123563962625969</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>739412</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>696523</v>
+        <v>695470</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>784077</v>
+        <v>785975</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.356707143121084</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3360164808298952</v>
+        <v>0.3355086445352071</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.378254209010051</v>
+        <v>0.3791701717746632</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>668</v>
@@ -5184,19 +5184,19 @@
         <v>698432</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>654674</v>
+        <v>653619</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>742738</v>
+        <v>741327</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3520571441705513</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.329999853290995</v>
+        <v>0.329468123681127</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3743902491996126</v>
+        <v>0.3736791263420187</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1367</v>
@@ -5205,19 +5205,19 @@
         <v>1437844</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1372546</v>
+        <v>1370979</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1492514</v>
+        <v>1495300</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3544331643304786</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3383368602290944</v>
+        <v>0.3379505620956474</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3679095252171328</v>
+        <v>0.3685962411796058</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>270581</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>240396</v>
+        <v>238535</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>301430</v>
+        <v>301294</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.130533827297725</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.115971978985768</v>
+        <v>0.1150740730888714</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1454157417561198</v>
+        <v>0.1453502166261387</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>222</v>
@@ -5255,19 +5255,19 @@
         <v>237641</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>211405</v>
+        <v>208779</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>269154</v>
+        <v>268387</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1197871029943353</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1065626432535177</v>
+        <v>0.1052386953318418</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1356720461733665</v>
+        <v>0.1352854021670958</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>475</v>
@@ -5276,19 +5276,19 @@
         <v>508222</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>465546</v>
+        <v>468464</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>549789</v>
+        <v>551854</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1252783802762601</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1147585780110848</v>
+        <v>0.115477977432423</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1355247997090873</v>
+        <v>0.1360337996171633</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>47020</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33872</v>
+        <v>33737</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62899</v>
+        <v>62950</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02268355487286437</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01634036534445367</v>
+        <v>0.01627534063515572</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03034394924772938</v>
+        <v>0.03036839913788122</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -5326,19 +5326,19 @@
         <v>31471</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20820</v>
+        <v>21694</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44907</v>
+        <v>45774</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01586374167368919</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01049464035457553</v>
+        <v>0.01093517133021075</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02263595575524604</v>
+        <v>0.02307308621790864</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -5347,19 +5347,19 @@
         <v>78492</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62386</v>
+        <v>61007</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99573</v>
+        <v>98465</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01934847657805343</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01537823274704541</v>
+        <v>0.01503847078442416</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02454497376994963</v>
+        <v>0.02427204616835386</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>13016</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6697</v>
+        <v>7101</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22164</v>
+        <v>23337</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006279412083088342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003230708026435212</v>
+        <v>0.003425875210162349</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01069244937635016</v>
+        <v>0.01125803116486429</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -5397,19 +5397,19 @@
         <v>11637</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5749</v>
+        <v>6229</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20113</v>
+        <v>19832</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005866032836835017</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002897856515593502</v>
+        <v>0.003140026935775694</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01013810653520031</v>
+        <v>0.009996807145010554</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -5418,19 +5418,19 @@
         <v>24654</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15834</v>
+        <v>16017</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36956</v>
+        <v>36328</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006077258136720499</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003903129978485279</v>
+        <v>0.003948339062629964</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009109869873301771</v>
+        <v>0.008954913172703638</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>305667</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>282006</v>
+        <v>279787</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>331162</v>
+        <v>330141</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5598073405069222</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5164744294182241</v>
+        <v>0.5124103141045527</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.606500961200034</v>
+        <v>0.6046304989587845</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>313</v>
@@ -5543,19 +5543,19 @@
         <v>325085</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>300117</v>
+        <v>299255</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>348322</v>
+        <v>346347</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5929987142622368</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5474538030490746</v>
+        <v>0.5458797962708473</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.635385863913378</v>
+        <v>0.6317823857390104</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>596</v>
@@ -5564,19 +5564,19 @@
         <v>630752</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>596081</v>
+        <v>598565</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>666866</v>
+        <v>663312</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5764361637905604</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.544750652567097</v>
+        <v>0.5470211425407747</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6094404554072781</v>
+        <v>0.6061924779466483</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>188978</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>163419</v>
+        <v>164655</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209851</v>
+        <v>210963</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3461009491102238</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2992903091571868</v>
+        <v>0.3015540067355945</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3843284025466208</v>
+        <v>0.386364222207257</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>160</v>
@@ -5614,19 +5614,19 @@
         <v>169109</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>150350</v>
+        <v>148569</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>192917</v>
+        <v>193795</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.308476546067201</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2742584803175933</v>
+        <v>0.2710094158325332</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3519065982689178</v>
+        <v>0.3535082594545929</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>332</v>
@@ -5635,19 +5635,19 @@
         <v>358087</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>325415</v>
+        <v>327850</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>390035</v>
+        <v>389023</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3272511854949222</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2973923814425762</v>
+        <v>0.2996182291175979</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.356447896500421</v>
+        <v>0.3555233283510119</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>50340</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36902</v>
+        <v>38447</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>66261</v>
+        <v>67235</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09219390469003863</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06758386435563747</v>
+        <v>0.07041246411836734</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1213523042993419</v>
+        <v>0.123135949273807</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>43</v>
@@ -5685,19 +5685,19 @@
         <v>44268</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32017</v>
+        <v>32325</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>57643</v>
+        <v>58238</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0807513594449618</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05840370303835588</v>
+        <v>0.05896556414124831</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.105148344142666</v>
+        <v>0.1062334242733789</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>87</v>
@@ -5706,19 +5706,19 @@
         <v>94608</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>75235</v>
+        <v>78239</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>113736</v>
+        <v>115130</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08646120847209586</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06875593584379623</v>
+        <v>0.07150172353032108</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1039420934766085</v>
+        <v>0.1052159388635966</v>
       </c>
     </row>
     <row r="19">
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5888</v>
+        <v>5837</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001897805692815425</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0107829615153174</v>
+        <v>0.01069030679256848</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -5756,19 +5756,19 @@
         <v>9743</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5186</v>
+        <v>4488</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17603</v>
+        <v>17281</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0177733802256004</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009460498066250704</v>
+        <v>0.008187385088929459</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03211044359419717</v>
+        <v>0.03152324525970127</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -5777,19 +5777,19 @@
         <v>10780</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5405</v>
+        <v>5639</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18903</v>
+        <v>20367</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009851442242421555</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004939583298755301</v>
+        <v>0.00515348206263761</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01727503817764921</v>
+        <v>0.01861347786188635</v>
       </c>
     </row>
     <row r="20">
@@ -5928,19 +5928,19 @@
         <v>1644824</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1585026</v>
+        <v>1588165</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1703677</v>
+        <v>1703906</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4876078222332187</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4698808352776929</v>
+        <v>0.470811282790969</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5050549153391063</v>
+        <v>0.505122816986427</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1676</v>
@@ -5949,19 +5949,19 @@
         <v>1761230</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1698876</v>
+        <v>1704972</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1824088</v>
+        <v>1820377</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4995752119934518</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4818883738845484</v>
+        <v>0.4836176765940726</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5174049022654481</v>
+        <v>0.51635243584208</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3244</v>
@@ -5970,19 +5970,19 @@
         <v>3406054</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3333634</v>
+        <v>3326660</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3491515</v>
+        <v>3494478</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4937235338698615</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4832260348548921</v>
+        <v>0.4822150684199171</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5061116131264659</v>
+        <v>0.506541070077854</v>
       </c>
     </row>
     <row r="23">
@@ -5999,19 +5999,19 @@
         <v>1196403</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1141925</v>
+        <v>1142930</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1248755</v>
+        <v>1255503</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3546737253222249</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3385234485566986</v>
+        <v>0.3388214141729611</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3701934074027156</v>
+        <v>0.3721938605656508</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1151</v>
@@ -6020,19 +6020,19 @@
         <v>1225179</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1168512</v>
+        <v>1171108</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1282759</v>
+        <v>1280711</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3475235526585697</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3314498625827468</v>
+        <v>0.332186252539757</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3638562569709098</v>
+        <v>0.3632752627230366</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2291</v>
@@ -6041,19 +6041,19 @@
         <v>2421582</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2345195</v>
+        <v>2347431</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2499758</v>
+        <v>2512556</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3510197627590244</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3399470567685576</v>
+        <v>0.3402712510269393</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3623517467410604</v>
+        <v>0.3642068207374848</v>
       </c>
     </row>
     <row r="24">
@@ -6070,19 +6070,19 @@
         <v>434147</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>398150</v>
+        <v>391487</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>477485</v>
+        <v>475278</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1287028044563668</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.118031673293834</v>
+        <v>0.116056247791674</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1415505076080291</v>
+        <v>0.1408960753653935</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>408</v>
@@ -6091,19 +6091,19 @@
         <v>443643</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>406784</v>
+        <v>405429</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>487634</v>
+        <v>485814</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1258397966929316</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1153847766549239</v>
+        <v>0.1150003599213932</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1383179182807963</v>
+        <v>0.1378016593578615</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>819</v>
@@ -6112,19 +6112,19 @@
         <v>877789</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>824027</v>
+        <v>825916</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>931437</v>
+        <v>935448</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1272397176642226</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.119446667660433</v>
+        <v>0.1197204919050275</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1350161856293209</v>
+        <v>0.1355976362150955</v>
       </c>
     </row>
     <row r="25">
@@ -6141,19 +6141,19 @@
         <v>80871</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>65185</v>
+        <v>64286</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100786</v>
+        <v>101386</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02397408204960852</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01932401696483817</v>
+        <v>0.01905766940869679</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0298780506478208</v>
+        <v>0.03005597561241865</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>65</v>
@@ -6162,19 +6162,19 @@
         <v>72569</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56946</v>
+        <v>57520</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>92363</v>
+        <v>93419</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02058431784461098</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01615293241618426</v>
+        <v>0.01631555578395785</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02619879856714771</v>
+        <v>0.02649838704093007</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>141</v>
@@ -6183,19 +6183,19 @@
         <v>153440</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>131372</v>
+        <v>131144</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>180188</v>
+        <v>181769</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02224180618918106</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01904295971830658</v>
+        <v>0.01900995187678626</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02611903842975538</v>
+        <v>0.02634834219305453</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>17006</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9782</v>
+        <v>10423</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26661</v>
+        <v>27875</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005041565938581146</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002899935553648159</v>
+        <v>0.003089758954142388</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007903737911911932</v>
+        <v>0.008263432712641024</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -6233,19 +6233,19 @@
         <v>22835</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14275</v>
+        <v>15115</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>35310</v>
+        <v>36841</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006477120810435871</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004049021844595019</v>
+        <v>0.004287509815362805</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01001564052278034</v>
+        <v>0.0104499241409029</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>36</v>
@@ -6254,19 +6254,19 @@
         <v>39841</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>28986</v>
+        <v>27679</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>54197</v>
+        <v>54585</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005775179517710546</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004201623168549626</v>
+        <v>0.004012213907176188</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.00785615513855247</v>
+        <v>0.007912338998113859</v>
       </c>
     </row>
     <row r="27">
@@ -6597,19 +6597,19 @@
         <v>262834</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>240829</v>
+        <v>239573</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>285893</v>
+        <v>285889</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4570956464219086</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4188276615161007</v>
+        <v>0.4166426982492062</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4971976755841388</v>
+        <v>0.4971918883344804</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>598</v>
@@ -6618,19 +6618,19 @@
         <v>345500</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>322256</v>
+        <v>325893</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>366713</v>
+        <v>369420</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4250436838485562</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3964481153681426</v>
+        <v>0.4009219254566196</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4511408541785116</v>
+        <v>0.4544711062812504</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>902</v>
@@ -6639,19 +6639,19 @@
         <v>608334</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>577398</v>
+        <v>575107</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>643438</v>
+        <v>641236</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4383231590596289</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4160327222515759</v>
+        <v>0.414382552301809</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.463616811666935</v>
+        <v>0.4620299170616443</v>
       </c>
     </row>
     <row r="5">
@@ -6668,19 +6668,19 @@
         <v>164980</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>143931</v>
+        <v>145204</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>183659</v>
+        <v>185708</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2869184994128677</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2503120603814327</v>
+        <v>0.2525250789655678</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3194030394338462</v>
+        <v>0.3229666783749401</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>431</v>
@@ -6689,19 +6689,19 @@
         <v>254765</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>234781</v>
+        <v>233412</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>274207</v>
+        <v>275712</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3134186564773785</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.28883349980773</v>
+        <v>0.2871500790058664</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3373369315928337</v>
+        <v>0.3391886527109228</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>635</v>
@@ -6710,19 +6710,19 @@
         <v>419745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>388190</v>
+        <v>387156</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>448013</v>
+        <v>449025</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3024393544136641</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2797026929550181</v>
+        <v>0.2789576250996711</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3228073104998299</v>
+        <v>0.3235359251402977</v>
       </c>
     </row>
     <row r="6">
@@ -6739,19 +6739,19 @@
         <v>87879</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>71750</v>
+        <v>71469</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>107965</v>
+        <v>104984</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1528313280670849</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1247805279977527</v>
+        <v>0.1242914565429166</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1877625918567836</v>
+        <v>0.1825785138495677</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>247</v>
@@ -6760,19 +6760,19 @@
         <v>132885</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>116581</v>
+        <v>116531</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>148246</v>
+        <v>149496</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1634786662172125</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1434217259424016</v>
+        <v>0.1433597269993038</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1823762912545303</v>
+        <v>0.183914521466813</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>348</v>
@@ -6781,19 +6781,19 @@
         <v>220764</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>197439</v>
+        <v>196976</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>245084</v>
+        <v>244767</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1590673587128764</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1422607916391843</v>
+        <v>0.1419273888068399</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.176590380201937</v>
+        <v>0.1763618035950918</v>
       </c>
     </row>
     <row r="7">
@@ -6810,19 +6810,19 @@
         <v>46454</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36494</v>
+        <v>36450</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59478</v>
+        <v>58365</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08078903158450222</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06346723952851493</v>
+        <v>0.06339014237503049</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1034388163984644</v>
+        <v>0.1015025916245874</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>102</v>
@@ -6831,19 +6831,19 @@
         <v>57966</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47354</v>
+        <v>48218</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70546</v>
+        <v>69990</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07131195569340841</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05825619336026061</v>
+        <v>0.05931948443633939</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08678707253190543</v>
+        <v>0.08610368165604762</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>163</v>
@@ -6852,19 +6852,19 @@
         <v>104421</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>88309</v>
+        <v>88695</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120326</v>
+        <v>120948</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07523841087009908</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06362949250771779</v>
+        <v>0.06390723791984973</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08669845927834961</v>
+        <v>0.08714674820396129</v>
       </c>
     </row>
     <row r="8">
@@ -6881,19 +6881,19 @@
         <v>12860</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7425</v>
+        <v>7130</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19972</v>
+        <v>19775</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02236549451363658</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01291215444448559</v>
+        <v>0.01239932725084457</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0347328132605259</v>
+        <v>0.0343913818648486</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>34</v>
@@ -6902,19 +6902,19 @@
         <v>21742</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14998</v>
+        <v>15693</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29801</v>
+        <v>30511</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02674703776344437</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01845094846140907</v>
+        <v>0.01930563723834769</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03666165998178102</v>
+        <v>0.03753537930042011</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>51</v>
@@ -6923,19 +6923,19 @@
         <v>34602</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26372</v>
+        <v>26707</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>46182</v>
+        <v>45402</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02493171694373146</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0190017866711207</v>
+        <v>0.01924306387936972</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0332753280725273</v>
+        <v>0.03271342050927355</v>
       </c>
     </row>
     <row r="9">
@@ -7027,19 +7027,19 @@
         <v>1176000</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1120522</v>
+        <v>1121201</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1231700</v>
+        <v>1229586</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5272203319785073</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5023485584230053</v>
+        <v>0.5026533220222499</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5521919030750057</v>
+        <v>0.5512440263586262</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1484</v>
@@ -7048,19 +7048,19 @@
         <v>1154121</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1110710</v>
+        <v>1111487</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1195704</v>
+        <v>1196305</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5332241176434879</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5131673317688172</v>
+        <v>0.513526269246284</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5524360524453815</v>
+        <v>0.5527134777794429</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2457</v>
@@ -7069,19 +7069,19 @@
         <v>2330121</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2259476</v>
+        <v>2263551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2394775</v>
+        <v>2402939</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.530177045840688</v>
+        <v>0.5301770458406879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5141029076754887</v>
+        <v>0.5150301153502849</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5448878330421497</v>
+        <v>0.5467454913698702</v>
       </c>
     </row>
     <row r="11">
@@ -7098,19 +7098,19 @@
         <v>780820</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>730920</v>
+        <v>729503</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>832017</v>
+        <v>829317</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3500546925991361</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3276838157136177</v>
+        <v>0.3270482028230348</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3730069270667478</v>
+        <v>0.3717966723499376</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1057</v>
@@ -7119,19 +7119,19 @@
         <v>738834</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>700046</v>
+        <v>698416</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>780849</v>
+        <v>779361</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3413539091669883</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3234331647802633</v>
+        <v>0.3226804823059344</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3607656472031194</v>
+        <v>0.3600781134744405</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1804</v>
@@ -7140,19 +7140,19 @@
         <v>1519654</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1451007</v>
+        <v>1455842</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1590041</v>
+        <v>1585184</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3457697749786224</v>
+        <v>0.3457697749786223</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3301505409384586</v>
+        <v>0.3312505968247624</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3617851070998252</v>
+        <v>0.3606800350715894</v>
       </c>
     </row>
     <row r="12">
@@ -7169,19 +7169,19 @@
         <v>193819</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>166337</v>
+        <v>167901</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>224906</v>
+        <v>225924</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08689232976955229</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07457181466525938</v>
+        <v>0.07527283662974076</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1008292207987048</v>
+        <v>0.1012857132045025</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>245</v>
@@ -7190,19 +7190,19 @@
         <v>180468</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>159670</v>
+        <v>159548</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>204256</v>
+        <v>208404</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08337927630970877</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07377028041822643</v>
+        <v>0.07371387246532554</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09436993638511783</v>
+        <v>0.09628614532206689</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>430</v>
@@ -7211,19 +7211,19 @@
         <v>374287</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>340656</v>
+        <v>338805</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>416142</v>
+        <v>415522</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.08516223904964407</v>
+        <v>0.08516223904964404</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07751010522646518</v>
+        <v>0.07708896857122563</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09468567901340591</v>
+        <v>0.09454445084009859</v>
       </c>
     </row>
     <row r="13">
@@ -7240,19 +7240,19 @@
         <v>60630</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47369</v>
+        <v>47529</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>76479</v>
+        <v>77259</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02718126348797711</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02123610814207352</v>
+        <v>0.02130807652727627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03428690768307848</v>
+        <v>0.03463662214841016</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>99</v>
@@ -7261,19 +7261,19 @@
         <v>69203</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57291</v>
+        <v>55340</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86480</v>
+        <v>86092</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03197298177061281</v>
+        <v>0.03197298177061282</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02646952077864867</v>
+        <v>0.02556812399840171</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0399550352184851</v>
+        <v>0.03977618502399017</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>166</v>
@@ -7282,19 +7282,19 @@
         <v>129833</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>109623</v>
+        <v>110499</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>152139</v>
+        <v>152376</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02954106456358385</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02494266144421124</v>
+        <v>0.02514204016529677</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03461658561600829</v>
+        <v>0.03467044466936837</v>
       </c>
     </row>
     <row r="14">
@@ -7311,19 +7311,19 @@
         <v>19297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12188</v>
+        <v>11365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29671</v>
+        <v>30269</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008651382164827371</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005463879671993526</v>
+        <v>0.005095085893242252</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0133020202729188</v>
+        <v>0.01357026901163574</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -7332,19 +7332,19 @@
         <v>21795</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14241</v>
+        <v>14044</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35765</v>
+        <v>36027</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01006971510920204</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006579527241409147</v>
+        <v>0.006488685106796319</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01652416465324461</v>
+        <v>0.01664496783051487</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>46</v>
@@ -7353,19 +7353,19 @@
         <v>41093</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29574</v>
+        <v>29019</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>56852</v>
+        <v>57225</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.009349875567461802</v>
+        <v>0.0093498755674618</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006729067232299791</v>
+        <v>0.006602773712353525</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01293571868290152</v>
+        <v>0.01302057503086224</v>
       </c>
     </row>
     <row r="15">
@@ -7457,19 +7457,19 @@
         <v>438014</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>407548</v>
+        <v>410159</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>463143</v>
+        <v>462678</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6177091628404056</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.574744662052506</v>
+        <v>0.5784274917062471</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6531481762575165</v>
+        <v>0.6524922900291152</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>654</v>
@@ -7478,19 +7478,19 @@
         <v>494415</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>470328</v>
+        <v>472636</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>517576</v>
+        <v>516583</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6747024950521018</v>
+        <v>0.6747024950521017</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6418325507023093</v>
+        <v>0.6449814055964811</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.706308252544657</v>
+        <v>0.7049539301313678</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1055</v>
@@ -7499,19 +7499,19 @@
         <v>932429</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>898532</v>
+        <v>897446</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>968647</v>
+        <v>968890</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6466741300028186</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6231655814362989</v>
+        <v>0.6224117309202926</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6717929331045731</v>
+        <v>0.6719609418008833</v>
       </c>
     </row>
     <row r="17">
@@ -7528,19 +7528,19 @@
         <v>208768</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183198</v>
+        <v>183907</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>234588</v>
+        <v>232245</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2944156702717876</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2583544539294937</v>
+        <v>0.2593550491821519</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3308271186043543</v>
+        <v>0.3275242458997747</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>284</v>
@@ -7549,19 +7549,19 @@
         <v>190580</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>169991</v>
+        <v>171036</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213908</v>
+        <v>211993</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2600749561032318</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2319776552754367</v>
+        <v>0.233404248135894</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2919087972781994</v>
+        <v>0.2892952768601642</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>501</v>
@@ -7570,19 +7570,19 @@
         <v>399349</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>367096</v>
+        <v>367736</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>432780</v>
+        <v>435300</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2769631434651183</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2545945849973146</v>
+        <v>0.2550385302525447</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3001488951973384</v>
+        <v>0.301896504549028</v>
       </c>
     </row>
     <row r="18">
@@ -7599,19 +7599,19 @@
         <v>39117</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27665</v>
+        <v>27289</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54348</v>
+        <v>54461</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05516501951685957</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03901391521301493</v>
+        <v>0.03848458153476223</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0766436739982604</v>
+        <v>0.07680403388821319</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>46</v>
@@ -7620,19 +7620,19 @@
         <v>36685</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26804</v>
+        <v>27689</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49842</v>
+        <v>49372</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.0500627704416127</v>
+        <v>0.05006277044161269</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03657782822026125</v>
+        <v>0.0377856328403376</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0680165649289543</v>
+        <v>0.06737575661444671</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>85</v>
@@ -7641,19 +7641,19 @@
         <v>75803</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>60564</v>
+        <v>60932</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>95601</v>
+        <v>95963</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.052571970976198</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04200328420970255</v>
+        <v>0.04225845031878134</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06630292652446895</v>
+        <v>0.06655416592768125</v>
       </c>
     </row>
     <row r="19">
@@ -7670,19 +7670,19 @@
         <v>17686</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10337</v>
+        <v>10460</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29780</v>
+        <v>29635</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02494136035921296</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01457766041416359</v>
+        <v>0.01475112707797153</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04199770523348709</v>
+        <v>0.0417933301120258</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -7691,19 +7691,19 @@
         <v>8467</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4563</v>
+        <v>4719</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14308</v>
+        <v>14970</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01155470312195602</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006226924947832306</v>
+        <v>0.006440159096715152</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01952482473205314</v>
+        <v>0.02042943617867607</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -7712,19 +7712,19 @@
         <v>26153</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17879</v>
+        <v>17817</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39657</v>
+        <v>39105</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01813803666774341</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01239990992618336</v>
+        <v>0.01235667306099596</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02750354160347922</v>
+        <v>0.02712063218302216</v>
       </c>
     </row>
     <row r="20">
@@ -7741,19 +7741,19 @@
         <v>5509</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1293</v>
+        <v>1609</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13121</v>
+        <v>14024</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007768787011734415</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001823782293557577</v>
+        <v>0.002268792195058635</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01850328284753262</v>
+        <v>0.01977779933684564</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -7762,19 +7762,19 @@
         <v>2642</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6778</v>
+        <v>6457</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00360507528109783</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0009601910450742889</v>
+        <v>0.0009646144264179415</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.009249691762263788</v>
+        <v>0.008812165357764535</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -7783,19 +7783,19 @@
         <v>8151</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3493</v>
+        <v>3834</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16197</v>
+        <v>15722</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005652718888121648</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00242273762489259</v>
+        <v>0.002658679797954108</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01123344041686454</v>
+        <v>0.0109035268976684</v>
       </c>
     </row>
     <row r="21">
@@ -7887,19 +7887,19 @@
         <v>1876848</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1808195</v>
+        <v>1811027</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1938990</v>
+        <v>1939385</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5340041464267894</v>
+        <v>0.5340041464267893</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5144708276124791</v>
+        <v>0.515276713505338</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5516850045919867</v>
+        <v>0.5517974303794756</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2736</v>
@@ -7908,19 +7908,19 @@
         <v>1994037</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1938886</v>
+        <v>1943198</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2045237</v>
+        <v>2050602</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5374662293930107</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.522601098977951</v>
+        <v>0.5237632657827223</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5512664834596198</v>
+        <v>0.5527127584489121</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4414</v>
@@ -7929,19 +7929,19 @@
         <v>3870884</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3788094</v>
+        <v>3788215</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3964593</v>
+        <v>3951305</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.535782005640144</v>
+        <v>0.5357820056401441</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5243227207360909</v>
+        <v>0.5243394986763302</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5487526210629969</v>
+        <v>0.5469132963353469</v>
       </c>
     </row>
     <row r="23">
@@ -7958,19 +7958,19 @@
         <v>1154569</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1097395</v>
+        <v>1097720</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1212292</v>
+        <v>1212567</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3285001353597979</v>
+        <v>0.3285001353597978</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3122327921475286</v>
+        <v>0.3123252560964578</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3449236393995779</v>
+        <v>0.3450018307372741</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1772</v>
@@ -7979,19 +7979,19 @@
         <v>1184179</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1134423</v>
+        <v>1133859</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1238327</v>
+        <v>1228609</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3191797209727772</v>
+        <v>0.3191797209727771</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3057687327301926</v>
+        <v>0.3056166879126303</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3337745258112648</v>
+        <v>0.3311552433626687</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2940</v>
@@ -8000,19 +8000,19 @@
         <v>2338748</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2245387</v>
+        <v>2270553</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2417063</v>
+        <v>2416671</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3237138882502045</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.310791515538355</v>
+        <v>0.3142748914858415</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3345538353693127</v>
+        <v>0.3344995768346041</v>
       </c>
     </row>
     <row r="24">
@@ -8029,19 +8029,19 @@
         <v>320816</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>287916</v>
+        <v>283465</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>360161</v>
+        <v>358443</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.091279029171651</v>
+        <v>0.09127902917165098</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08191849545405366</v>
+        <v>0.08065199585711785</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.102473673257099</v>
+        <v>0.1019848377368748</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>538</v>
@@ -8050,19 +8050,19 @@
         <v>350038</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>318060</v>
+        <v>317811</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>379051</v>
+        <v>377473</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.09434819831075733</v>
+        <v>0.0943481983107573</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08572878663293615</v>
+        <v>0.08566184495998858</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1021682212472556</v>
+        <v>0.1017429736498273</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>863</v>
@@ -8071,19 +8071,19 @@
         <v>670854</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>623634</v>
+        <v>627773</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>718586</v>
+        <v>721938</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09285511809977391</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08631931167322582</v>
+        <v>0.0868920907770665</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09946194229342904</v>
+        <v>0.09992582676951527</v>
       </c>
     </row>
     <row r="25">
@@ -8100,19 +8100,19 @@
         <v>124770</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>106979</v>
+        <v>105589</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>149061</v>
+        <v>147042</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03549971225851377</v>
+        <v>0.03549971225851376</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03043780767994172</v>
+        <v>0.03004244859738212</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04241116298534463</v>
+        <v>0.04183658593155309</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>214</v>
@@ -8121,19 +8121,19 @@
         <v>135637</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>117820</v>
+        <v>118191</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>155284</v>
+        <v>156818</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03655907051866609</v>
+        <v>0.03655907051866608</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03175685006187428</v>
+        <v>0.03185674363875687</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0418548379512096</v>
+        <v>0.0422683434019485</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>359</v>
@@ -8142,19 +8142,19 @@
         <v>260406</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>230366</v>
+        <v>233572</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>289013</v>
+        <v>289097</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03604371708492349</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03188570583370783</v>
+        <v>0.03232953521444707</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04000321284776723</v>
+        <v>0.04001485822524299</v>
       </c>
     </row>
     <row r="26">
@@ -8171,19 +8171,19 @@
         <v>37667</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>26987</v>
+        <v>27235</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50746</v>
+        <v>51685</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01071697678324812</v>
+        <v>0.01071697678324811</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007678506315455253</v>
+        <v>0.007749041809844757</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01443822417557598</v>
+        <v>0.01470536965190653</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>64</v>
@@ -8192,19 +8192,19 @@
         <v>46178</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>36329</v>
+        <v>34583</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>64080</v>
+        <v>60381</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01244678080478879</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009792022006521264</v>
+        <v>0.009321499222267214</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0172719984210505</v>
+        <v>0.01627482766742729</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>105</v>
@@ -8213,19 +8213,19 @@
         <v>83845</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>67966</v>
+        <v>69903</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>101854</v>
+        <v>103688</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01160527092495404</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009407470036392369</v>
+        <v>0.009675538712738638</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.014097886568259</v>
+        <v>0.01435174829023664</v>
       </c>
     </row>
     <row r="27">
